--- a/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20160301\SOP-MFG-3 生产岗位\305，PTV生产记录20160601\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -424,19 +424,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
@@ -741,29 +728,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve">vertical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焊线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> voltage:            V</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">vertical </t>
+      <t xml:space="preserve"> 2 </t>
     </r>
     <r>
       <rPr>
@@ -772,7 +754,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>焊线</t>
+      <t>号</t>
     </r>
     <r>
       <rPr>
@@ -780,7 +762,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 2 </t>
+      <t xml:space="preserve"> Line 2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Horizontal  </t>
     </r>
     <r>
       <rPr>
@@ -789,7 +777,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>号</t>
+      <t>焊线</t>
     </r>
     <r>
       <rPr>
@@ -797,13 +785,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Line 2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Horizontal  </t>
+      <t xml:space="preserve"> 1 </t>
     </r>
     <r>
       <rPr>
@@ -812,7 +794,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>焊线</t>
+      <t>号</t>
     </r>
     <r>
       <rPr>
@@ -820,28 +802,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve"> Line 1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Line 1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -850,7 +834,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品代码</t>
+      <t>规格：</t>
     </r>
     <r>
       <rPr>
@@ -859,82 +843,71 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>规格：</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t xml:space="preserve">       L     "</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>圆口代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把手代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电压</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">       L     "</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>圆口代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把手代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t xml:space="preserve"> voltage:            V</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1719,7 +1692,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,12 +1867,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,38 +1972,56 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2008,55 +2032,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2382,13 +2358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2400,104 +2376,104 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="88"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="6"/>
       <c r="E7" s="21"/>
       <c r="F7" s="5"/>
@@ -2509,7 +2485,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2529,7 +2505,7 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2523,7 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2541,7 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2583,11 +2559,11 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="14"/>
       <c r="E12" s="24"/>
       <c r="F12" s="13"/>
@@ -2599,7 +2575,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2619,7 +2595,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A14" s="74"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +2613,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2655,7 +2631,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
@@ -2673,11 +2649,11 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
@@ -2689,11 +2665,11 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2705,11 +2681,11 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2721,11 +2697,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2737,11 +2713,11 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2753,11 +2729,11 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2769,16 +2745,16 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -2788,13 +2764,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:H23"/>
@@ -2809,6 +2778,13 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2821,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P10" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2844,14 +2820,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="A1" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2867,116 +2843,116 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" ht="26.45" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-    </row>
-    <row r="3" spans="1:17" ht="26.45" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25" customHeight="1">
+      <c r="A4" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="99" t="s">
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="95"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A5" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
-    </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A4" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="99" t="s">
+      <c r="C5" s="96" t="s">
         <v>46</v>
-      </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="96"/>
       <c r="H5" s="96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
       <c r="L5" s="96"/>
-      <c r="M5" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>37</v>
+      <c r="M5" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="103" t="s">
+        <v>36</v>
       </c>
       <c r="P5" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="105" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="6" spans="1:17" ht="22.5">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +2965,7 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="101" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -3004,18 +2980,18 @@
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
       <c r="P6" s="96"/>
-      <c r="Q6" s="105"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3004,7 @@
       <c r="F7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="106"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="33" t="s">
         <v>5</v>
       </c>
@@ -3041,17 +3017,17 @@
       <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="96"/>
-      <c r="Q7" s="105"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1">
-      <c r="A8" s="105"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="34"/>
@@ -3063,11 +3039,11 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
       <c r="P8" s="96"/>
-      <c r="Q8" s="105"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17" ht="24" customHeight="1">
       <c r="A9" s="49">
@@ -3280,32 +3256,38 @@
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" s="37" customFormat="1" ht="81" customHeight="1">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="94" t="s">
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="93"/>
+      <c r="Q19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="O5:O8"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="P5:P8"/>
@@ -3322,12 +3304,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="O5:O8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -514,76 +514,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>合格品
 数量（只）</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -854,38 +784,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">       L     "</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>圆口代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>把手代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1867,6 +1765,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1888,12 +1858,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1906,70 +1870,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1981,9 +1897,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2002,15 +1915,12 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2022,18 +1932,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2358,13 +2256,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2376,104 +2274,104 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="78" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="79"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="64"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="6"/>
       <c r="E7" s="21"/>
       <c r="F7" s="5"/>
@@ -2485,7 +2383,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2505,7 +2403,7 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2421,7 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A10" s="85"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2541,7 +2439,7 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A11" s="85"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2559,11 +2457,11 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="14"/>
       <c r="E12" s="24"/>
       <c r="F12" s="13"/>
@@ -2575,7 +2473,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2595,7 +2493,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A14" s="85"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2511,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A15" s="85"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2631,7 +2529,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
@@ -2649,11 +2547,11 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
@@ -2665,11 +2563,11 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2681,11 +2579,11 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2697,11 +2595,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2713,11 +2611,11 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2729,11 +2627,11 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2745,16 +2643,16 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -2764,6 +2662,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:H23"/>
@@ -2778,13 +2683,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2797,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P10" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2820,14 +2718,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2843,116 +2741,110 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17" ht="26.45" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-    </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A4" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="95"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="96"/>
       <c r="H5" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
       <c r="L5" s="96"/>
-      <c r="M5" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="103" t="s">
+      <c r="M5" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="97" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="100" t="s">
+      <c r="Q5" s="105" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.5">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2857,7 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="106" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -2980,18 +2872,18 @@
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="96"/>
-      <c r="Q6" s="100"/>
+      <c r="Q6" s="105"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
@@ -3004,7 +2896,7 @@
       <c r="F7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="101"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="33" t="s">
         <v>5</v>
       </c>
@@ -3017,15 +2909,15 @@
       <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
       <c r="P7" s="96"/>
-      <c r="Q7" s="100"/>
+      <c r="Q7" s="105"/>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="38" t="s">
         <v>35</v>
       </c>
@@ -3039,11 +2931,11 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
       <c r="P8" s="96"/>
-      <c r="Q8" s="100"/>
+      <c r="Q8" s="105"/>
     </row>
     <row r="9" spans="1:17" ht="24" customHeight="1">
       <c r="A9" s="49">
@@ -3256,38 +3148,32 @@
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" s="37" customFormat="1" ht="81" customHeight="1">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="111" t="s">
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="110"/>
+      <c r="Q19" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="O5:O8"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="P5:P8"/>
@@ -3304,6 +3190,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="O5:O8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-413-R01A 圆口焊接机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1590,7 +1590,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,12 +1765,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,38 +1870,56 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1879,59 +1930,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2256,13 +2268,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2274,104 +2286,104 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="67" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="69" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="88"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="6"/>
       <c r="E7" s="21"/>
       <c r="F7" s="5"/>
@@ -2383,7 +2395,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2403,7 +2415,7 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2433,7 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2439,7 +2451,7 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2457,11 +2469,11 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="14"/>
       <c r="E12" s="24"/>
       <c r="F12" s="13"/>
@@ -2473,7 +2485,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2493,7 +2505,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A14" s="74"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2511,7 +2523,7 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2529,7 +2541,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
@@ -2547,11 +2559,11 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
@@ -2563,11 +2575,11 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2579,11 +2591,11 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2595,11 +2607,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2611,11 +2623,11 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2627,11 +2639,11 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2643,16 +2655,16 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="26" t="s">
         <v>11</v>
       </c>
@@ -2662,13 +2674,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:H23"/>
@@ -2683,6 +2688,13 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2695,37 +2707,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="15" width="7.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -2741,75 +2756,75 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-    </row>
-    <row r="3" spans="1:17" ht="26.45" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" ht="50.25" customHeight="1">
+      <c r="A3" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="109" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
-    </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="99" t="s">
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="115"/>
+    </row>
+    <row r="4" spans="1:17" ht="39.75" customHeight="1">
+      <c r="A4" s="105"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="100" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -2826,25 +2841,25 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
       <c r="L5" s="96"/>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="103" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="105" t="s">
+      <c r="Q5" s="100" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.5">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2872,7 @@
       <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="101" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -2872,18 +2887,18 @@
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
       <c r="P6" s="96"/>
-      <c r="Q6" s="105"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
@@ -2896,7 +2911,7 @@
       <c r="F7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="106"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="33" t="s">
         <v>5</v>
       </c>
@@ -2909,15 +2924,15 @@
       <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="96"/>
-      <c r="Q7" s="105"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1">
-      <c r="A8" s="105"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="38" t="s">
         <v>35</v>
       </c>
@@ -2931,11 +2946,11 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
       <c r="P8" s="96"/>
-      <c r="Q8" s="105"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17" ht="24" customHeight="1">
       <c r="A9" s="49">
@@ -3148,54 +3163,54 @@
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" s="37" customFormat="1" ht="81" customHeight="1">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="94" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="93" t="s">
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="93"/>
+      <c r="Q19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:M8"/>
     <mergeCell ref="O5:O8"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
